--- a/pegawai/assets/template/laporan_peminjaman.xlsx
+++ b/pegawai/assets/template/laporan_peminjaman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skripsi-reza\pegawai\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1631304B-8C43-4F57-AECC-7D0E92115ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5641403E-8936-409A-A0DD-F92A2337F540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{39EBDD65-0ADD-4A01-9F47-80CBEC366E52}"/>
+    <workbookView xWindow="49170" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{39EBDD65-0ADD-4A01-9F47-80CBEC366E52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -111,19 +111,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,41 +448,42 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
